--- a/AAII_Financials/Yearly/EMCG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EMCG_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="92">
   <si>
     <t>EMCG</t>
   </si>
@@ -665,8 +665,8 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -688,10 +688,10 @@
         <v>44926</v>
       </c>
       <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>3</v>
@@ -714,23 +714,23 @@
       <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
       </c>
       <c r="K8" s="3"/>
     </row>
@@ -859,26 +859,26 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3"/>
     </row>
@@ -886,26 +886,26 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3"/>
     </row>
@@ -923,11 +923,11 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>3</v>
@@ -953,8 +953,8 @@
       <c r="D18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
+      <c r="E18" s="3">
+        <v>0</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
@@ -993,8 +993,8 @@
       <c r="D20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
+      <c r="E20" s="3">
+        <v>0</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
@@ -1017,26 +1017,26 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
       </c>
       <c r="K21" s="3"/>
     </row>
@@ -1044,26 +1044,26 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3"/>
     </row>
@@ -1071,11 +1071,11 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>3</v>
@@ -1098,26 +1098,26 @@
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3"/>
     </row>
@@ -1152,11 +1152,11 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>3</v>
@@ -1179,11 +1179,11 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>3</v>
@@ -1233,26 +1233,26 @@
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>3</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3"/>
     </row>
@@ -1317,8 +1317,8 @@
       <c r="D32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
+      <c r="E32" s="3">
+        <v>0</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
@@ -1341,11 +1341,11 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>3</v>
@@ -1395,11 +1395,11 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>3</v>
@@ -1431,10 +1431,10 @@
         <v>44926</v>
       </c>
       <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>3</v>
@@ -1483,8 +1483,8 @@
       <c r="D41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
+      <c r="E41" s="3">
+        <v>0</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
@@ -1540,20 +1540,20 @@
       <c r="E43" s="3">
         <v>0</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3"/>
     </row>
@@ -1588,26 +1588,26 @@
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K45" s="3"/>
     </row>
@@ -1618,8 +1618,8 @@
       <c r="D46" s="3">
         <v>400</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
+      <c r="E46" s="3">
+        <v>200</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
@@ -1645,8 +1645,8 @@
       <c r="D47" s="3">
         <v>76500</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
+      <c r="E47" s="3">
+        <v>0</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -1834,8 +1834,8 @@
       <c r="D54" s="3">
         <v>76900</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
+      <c r="E54" s="3">
+        <v>200</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
@@ -1915,22 +1915,22 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K58" s="3"/>
     </row>
@@ -1941,8 +1941,8 @@
       <c r="D59" s="3">
         <v>200</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
+      <c r="E59" s="3">
+        <v>0</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -1968,8 +1968,8 @@
       <c r="D60" s="3">
         <v>200</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
+      <c r="E60" s="3">
+        <v>100</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
@@ -2128,25 +2128,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="E66" s="3">
-        <v>0</v>
-      </c>
-      <c r="F66" s="3">
-        <v>0</v>
-      </c>
-      <c r="G66" s="3">
-        <v>0</v>
-      </c>
-      <c r="H66" s="3">
-        <v>0</v>
-      </c>
-      <c r="I66" s="3">
-        <v>0</v>
-      </c>
-      <c r="J66" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K66" s="3"/>
     </row>
@@ -2278,8 +2278,8 @@
       <c r="D72" s="3">
         <v>-2300</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
+      <c r="E72" s="3">
+        <v>0</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2384,25 +2384,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>74200</v>
       </c>
       <c r="E76" s="3">
         <v>0</v>
       </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
-      <c r="J76" s="3">
-        <v>0</v>
+      <c r="F76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K76" s="3"/>
     </row>
@@ -2446,10 +2446,10 @@
         <v>44926</v>
       </c>
       <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>3</v>
@@ -2469,11 +2469,11 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>3</v>
@@ -2674,8 +2674,8 @@
       <c r="D89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
+      <c r="E89" s="3">
+        <v>0</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
@@ -2795,8 +2795,8 @@
       <c r="D94" s="3">
         <v>-75800</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
@@ -2943,8 +2943,8 @@
       <c r="D100" s="3">
         <v>76400</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
+      <c r="E100" s="3">
+        <v>0</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
@@ -2997,8 +2997,8 @@
       <c r="D102" s="3">
         <v>400</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
+      <c r="E102" s="3">
+        <v>0</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>3</v>
